--- a/data/pca/factorExposure/factorExposure_2014-10-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007055354794029244</v>
+        <v>0.01646042119399087</v>
       </c>
       <c r="C2">
-        <v>0.1041365268855464</v>
+        <v>0.07133937846727179</v>
       </c>
       <c r="D2">
-        <v>-0.008672473351603103</v>
+        <v>-0.02923525466877555</v>
       </c>
       <c r="E2">
-        <v>0.2198521753033917</v>
+        <v>-0.07055229165496697</v>
       </c>
       <c r="F2">
-        <v>-0.1114895185775007</v>
+        <v>-0.1489938231052875</v>
       </c>
       <c r="G2">
-        <v>0.06048307047392148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.003712689806970293</v>
+      </c>
+      <c r="H2">
+        <v>0.05280044393280883</v>
+      </c>
+      <c r="I2">
+        <v>0.0002511263962286181</v>
+      </c>
+      <c r="J2">
+        <v>0.1844111934493428</v>
+      </c>
+      <c r="K2">
+        <v>0.05891760448654827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03161314472629163</v>
+        <v>0.02078249334616696</v>
       </c>
       <c r="C4">
-        <v>0.1804101271163065</v>
+        <v>0.1511157612326608</v>
       </c>
       <c r="D4">
-        <v>0.0314779624309932</v>
+        <v>-0.06890516571848422</v>
       </c>
       <c r="E4">
-        <v>0.1139529622465068</v>
+        <v>0.03064349857146506</v>
       </c>
       <c r="F4">
-        <v>0.05046620296442126</v>
+        <v>-0.0778088804319111</v>
       </c>
       <c r="G4">
-        <v>0.02460343659016135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01623789263477645</v>
+      </c>
+      <c r="H4">
+        <v>0.1026885254298483</v>
+      </c>
+      <c r="I4">
+        <v>0.01041921336419024</v>
+      </c>
+      <c r="J4">
+        <v>0.1707180130383329</v>
+      </c>
+      <c r="K4">
+        <v>-0.08963906868994284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03041637858338028</v>
+        <v>0.03998995369039376</v>
       </c>
       <c r="C6">
-        <v>0.08115424537257696</v>
+        <v>0.08849385833678357</v>
       </c>
       <c r="D6">
-        <v>0.04649686358012637</v>
+        <v>-0.02827828024301405</v>
       </c>
       <c r="E6">
-        <v>0.06411953877944472</v>
+        <v>-0.04192431071567292</v>
       </c>
       <c r="F6">
-        <v>-0.01043154045325758</v>
+        <v>-0.02566719359262363</v>
       </c>
       <c r="G6">
-        <v>-0.01466903160876982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04088754313573684</v>
+      </c>
+      <c r="H6">
+        <v>0.02651131141742745</v>
+      </c>
+      <c r="I6">
+        <v>-0.07422992041311961</v>
+      </c>
+      <c r="J6">
+        <v>0.05943681056482746</v>
+      </c>
+      <c r="K6">
+        <v>0.03891951445751515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.005423464357325549</v>
+        <v>0.01391365511234812</v>
       </c>
       <c r="C7">
-        <v>0.0531222922075591</v>
+        <v>0.06860993661959618</v>
       </c>
       <c r="D7">
-        <v>0.01947334435990127</v>
+        <v>-0.02384466101052308</v>
       </c>
       <c r="E7">
-        <v>0.05200368366155813</v>
+        <v>0.02017808504570702</v>
       </c>
       <c r="F7">
-        <v>0.0419189307437841</v>
+        <v>-0.003995206445435237</v>
       </c>
       <c r="G7">
-        <v>-0.003697615389069238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05501045529802752</v>
+      </c>
+      <c r="H7">
+        <v>0.0998092770472956</v>
+      </c>
+      <c r="I7">
+        <v>-0.007948891518579438</v>
+      </c>
+      <c r="J7">
+        <v>0.03484707177748457</v>
+      </c>
+      <c r="K7">
+        <v>-0.008551701686339102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.003390799288197216</v>
+        <v>-0.0002014004176539124</v>
       </c>
       <c r="C8">
-        <v>0.06792259219162625</v>
+        <v>0.06359879238431919</v>
       </c>
       <c r="D8">
-        <v>0.0210268521199239</v>
+        <v>-0.04284496477859477</v>
       </c>
       <c r="E8">
-        <v>0.1011841889404927</v>
+        <v>-0.009523661032462313</v>
       </c>
       <c r="F8">
-        <v>0.01353190684123532</v>
+        <v>-0.06592124110498404</v>
       </c>
       <c r="G8">
-        <v>0.02942217685100968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.007231685089188974</v>
+      </c>
+      <c r="H8">
+        <v>0.05661257110370774</v>
+      </c>
+      <c r="I8">
+        <v>-0.0005419701134554957</v>
+      </c>
+      <c r="J8">
+        <v>0.002204763078739263</v>
+      </c>
+      <c r="K8">
+        <v>0.008041520050494405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01943804314542847</v>
+        <v>0.01488877143294342</v>
       </c>
       <c r="C9">
-        <v>0.1376052714166946</v>
+        <v>0.1107782167763827</v>
       </c>
       <c r="D9">
-        <v>0.03574070638129213</v>
+        <v>-0.04550957188468383</v>
       </c>
       <c r="E9">
-        <v>0.05767210380682577</v>
+        <v>0.003661843220090941</v>
       </c>
       <c r="F9">
-        <v>0.02522317746165538</v>
+        <v>-0.03478037994551355</v>
       </c>
       <c r="G9">
-        <v>-0.02942303619466827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.007183684163181128</v>
+      </c>
+      <c r="H9">
+        <v>0.09338395591671116</v>
+      </c>
+      <c r="I9">
+        <v>-0.02100347643636507</v>
+      </c>
+      <c r="J9">
+        <v>0.07726534476635161</v>
+      </c>
+      <c r="K9">
+        <v>-0.05991172729960886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2667738145362246</v>
+        <v>0.248149599066468</v>
       </c>
       <c r="C10">
-        <v>-0.1066434468350553</v>
+        <v>-0.09795513681831838</v>
       </c>
       <c r="D10">
-        <v>-0.02880741069785942</v>
+        <v>0.006259862815428131</v>
       </c>
       <c r="E10">
-        <v>-0.02245869334397863</v>
+        <v>-0.01034305700912179</v>
       </c>
       <c r="F10">
-        <v>0.02303993647038035</v>
+        <v>0.005443430063208451</v>
       </c>
       <c r="G10">
-        <v>-0.02069304362507606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02740044133583572</v>
+      </c>
+      <c r="H10">
+        <v>0.04255663067873456</v>
+      </c>
+      <c r="I10">
+        <v>0.1743820417504597</v>
+      </c>
+      <c r="J10">
+        <v>-0.08150415689990516</v>
+      </c>
+      <c r="K10">
+        <v>-0.05490872465108222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01312160469995488</v>
+        <v>0.01652017748051291</v>
       </c>
       <c r="C11">
-        <v>0.06601455443136026</v>
+        <v>0.08122920844084278</v>
       </c>
       <c r="D11">
-        <v>0.02165217414848928</v>
+        <v>-0.03593784058555542</v>
       </c>
       <c r="E11">
-        <v>0.0007679598440308567</v>
+        <v>0.01051586311405776</v>
       </c>
       <c r="F11">
-        <v>0.04060778438003841</v>
+        <v>0.008284080924561735</v>
       </c>
       <c r="G11">
-        <v>-0.04297764067201708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01654748045710411</v>
+      </c>
+      <c r="H11">
+        <v>0.03485804318767496</v>
+      </c>
+      <c r="I11">
+        <v>-0.01943453493633436</v>
+      </c>
+      <c r="J11">
+        <v>-0.024235068176235</v>
+      </c>
+      <c r="K11">
+        <v>-0.03189137151719587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.01106292175365953</v>
+        <v>0.01664858881801828</v>
       </c>
       <c r="C12">
-        <v>0.05582228666962175</v>
+        <v>0.05915523018255273</v>
       </c>
       <c r="D12">
-        <v>0.02627163859034695</v>
+        <v>-0.02143707349321412</v>
       </c>
       <c r="E12">
-        <v>-0.0004709042531884693</v>
+        <v>-0.01589953422595775</v>
       </c>
       <c r="F12">
-        <v>0.01013562000723849</v>
+        <v>0.01323068034138673</v>
       </c>
       <c r="G12">
-        <v>-0.07372626603025918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03230181656970981</v>
+      </c>
+      <c r="H12">
+        <v>0.03181380960263404</v>
+      </c>
+      <c r="I12">
+        <v>-0.01595602829287311</v>
+      </c>
+      <c r="J12">
+        <v>-0.01080993409233712</v>
+      </c>
+      <c r="K12">
+        <v>-0.03223347384752989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02671663755461292</v>
+        <v>0.007187522639853844</v>
       </c>
       <c r="C13">
-        <v>0.1173120241347106</v>
+        <v>0.1180925510152557</v>
       </c>
       <c r="D13">
-        <v>0.04755642298085207</v>
+        <v>-0.04103231480068141</v>
       </c>
       <c r="E13">
-        <v>0.06344743963084881</v>
+        <v>-0.1253677449495464</v>
       </c>
       <c r="F13">
-        <v>0.03169873135749712</v>
+        <v>-0.09390491941599277</v>
       </c>
       <c r="G13">
-        <v>-0.1698519101721276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1337614101482445</v>
+      </c>
+      <c r="H13">
+        <v>0.1256838046470911</v>
+      </c>
+      <c r="I13">
+        <v>0.1951099764272976</v>
+      </c>
+      <c r="J13">
+        <v>-0.1849964176057383</v>
+      </c>
+      <c r="K13">
+        <v>0.1483771766461884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01247272333704113</v>
+        <v>0.01867383871090666</v>
       </c>
       <c r="C14">
-        <v>0.06224843104696697</v>
+        <v>0.07275431257810572</v>
       </c>
       <c r="D14">
-        <v>0.02291646182456639</v>
+        <v>-0.04815161021259749</v>
       </c>
       <c r="E14">
-        <v>0.04925517278133983</v>
+        <v>-0.04309105674146947</v>
       </c>
       <c r="F14">
-        <v>-0.0003662171073069321</v>
+        <v>0.002336605427198995</v>
       </c>
       <c r="G14">
-        <v>-0.06985255318173164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.09299144850259168</v>
+      </c>
+      <c r="H14">
+        <v>0.2010136961045109</v>
+      </c>
+      <c r="I14">
+        <v>-0.03594162188998277</v>
+      </c>
+      <c r="J14">
+        <v>-0.1131897730470112</v>
+      </c>
+      <c r="K14">
+        <v>0.1093850557154982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.00873825827698132</v>
+        <v>0.001921858321138715</v>
       </c>
       <c r="C15">
-        <v>0.09505013096935813</v>
+        <v>0.07926766493434938</v>
       </c>
       <c r="D15">
-        <v>0.03000045884415069</v>
+        <v>-0.03440165372141602</v>
       </c>
       <c r="E15">
-        <v>0.07967534334933843</v>
+        <v>-0.0001394288719655357</v>
       </c>
       <c r="F15">
-        <v>0.02410073712181081</v>
+        <v>-0.02556872053252017</v>
       </c>
       <c r="G15">
-        <v>-0.03085582528435545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03835029848294965</v>
+      </c>
+      <c r="H15">
+        <v>0.08655252323819805</v>
+      </c>
+      <c r="I15">
+        <v>-0.02339584841920668</v>
+      </c>
+      <c r="J15">
+        <v>-0.05822698722158485</v>
+      </c>
+      <c r="K15">
+        <v>-0.007752777746710454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01500417046528057</v>
+        <v>0.01603869483768365</v>
       </c>
       <c r="C16">
-        <v>0.06032657289859028</v>
+        <v>0.06317770412140684</v>
       </c>
       <c r="D16">
-        <v>0.01329535208730452</v>
+        <v>-0.02549056876975968</v>
       </c>
       <c r="E16">
-        <v>-0.0005545522947825348</v>
+        <v>0.003828248843958073</v>
       </c>
       <c r="F16">
-        <v>0.01690252306756866</v>
+        <v>0.005606040914265326</v>
       </c>
       <c r="G16">
-        <v>-0.03600233650197322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.01282904310179667</v>
+      </c>
+      <c r="H16">
+        <v>0.02768644871024183</v>
+      </c>
+      <c r="I16">
+        <v>-0.01709378228992989</v>
+      </c>
+      <c r="J16">
+        <v>-0.007007470365906189</v>
+      </c>
+      <c r="K16">
+        <v>-0.02312534630147936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01472478082966512</v>
+        <v>0.01393183351529054</v>
       </c>
       <c r="C20">
-        <v>0.08837658510121164</v>
+        <v>0.08586481129534995</v>
       </c>
       <c r="D20">
-        <v>0.01383493303939507</v>
+        <v>-0.02489230935245972</v>
       </c>
       <c r="E20">
-        <v>0.02585869114554181</v>
+        <v>0.02727042402528836</v>
       </c>
       <c r="F20">
-        <v>0.07162582269733532</v>
+        <v>0.0002700160948925121</v>
       </c>
       <c r="G20">
-        <v>-0.07978529731590751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04693814444748227</v>
+      </c>
+      <c r="H20">
+        <v>0.07087565791892886</v>
+      </c>
+      <c r="I20">
+        <v>-0.0202819727577047</v>
+      </c>
+      <c r="J20">
+        <v>0.01330127038980757</v>
+      </c>
+      <c r="K20">
+        <v>-0.02455202767499162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.004786478692436018</v>
+        <v>0.01439241214254691</v>
       </c>
       <c r="C21">
-        <v>0.08829002269403695</v>
+        <v>0.07457188426771505</v>
       </c>
       <c r="D21">
-        <v>-0.03047234010725982</v>
+        <v>-0.02342913075082604</v>
       </c>
       <c r="E21">
-        <v>0.05552479920926767</v>
+        <v>-0.08323076219350449</v>
       </c>
       <c r="F21">
-        <v>-0.03077473392602063</v>
+        <v>-0.01252893023105145</v>
       </c>
       <c r="G21">
-        <v>-0.05592019001917489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0297668746434216</v>
+      </c>
+      <c r="H21">
+        <v>0.1445585862549222</v>
+      </c>
+      <c r="I21">
+        <v>0.02841536602523623</v>
+      </c>
+      <c r="J21">
+        <v>-0.04355995832899552</v>
+      </c>
+      <c r="K21">
+        <v>0.0161123897023607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04997821491169954</v>
+        <v>0.007701980487671652</v>
       </c>
       <c r="C22">
-        <v>0.1724881829408148</v>
+        <v>0.1694125270855957</v>
       </c>
       <c r="D22">
-        <v>-0.1015536602313624</v>
+        <v>-0.01542171676050725</v>
       </c>
       <c r="E22">
-        <v>0.2916576612537072</v>
+        <v>0.03838612441444972</v>
       </c>
       <c r="F22">
-        <v>0.08634379241484441</v>
+        <v>-0.5229263650626282</v>
       </c>
       <c r="G22">
-        <v>0.2146350213323759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.0255696179915993</v>
+      </c>
+      <c r="H22">
+        <v>-0.3085684525595447</v>
+      </c>
+      <c r="I22">
+        <v>0.03402224768921767</v>
+      </c>
+      <c r="J22">
+        <v>-0.2229215095042028</v>
+      </c>
+      <c r="K22">
+        <v>-0.02576568854605004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04977344178065229</v>
+        <v>0.01251064288894592</v>
       </c>
       <c r="C23">
-        <v>0.1731791242357102</v>
+        <v>0.1731661848977054</v>
       </c>
       <c r="D23">
-        <v>-0.1012663965217338</v>
+        <v>-0.01453637996104818</v>
       </c>
       <c r="E23">
-        <v>0.2872923820009415</v>
+        <v>0.03618584267156627</v>
       </c>
       <c r="F23">
-        <v>0.08554038912369695</v>
+        <v>-0.5049466483825946</v>
       </c>
       <c r="G23">
-        <v>0.2140124621682641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.02169647690238147</v>
+      </c>
+      <c r="H23">
+        <v>-0.287592952811438</v>
+      </c>
+      <c r="I23">
+        <v>0.02623543739779786</v>
+      </c>
+      <c r="J23">
+        <v>-0.209943102775323</v>
+      </c>
+      <c r="K23">
+        <v>-0.03281156677271642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.009019307038527161</v>
+        <v>0.0169032767965709</v>
       </c>
       <c r="C24">
-        <v>0.06708844148498876</v>
+        <v>0.06975496546290511</v>
       </c>
       <c r="D24">
-        <v>0.03687919891738863</v>
+        <v>-0.03843832740244272</v>
       </c>
       <c r="E24">
-        <v>0.003300096910501707</v>
+        <v>0.007064279363512753</v>
       </c>
       <c r="F24">
-        <v>0.02910466834275039</v>
+        <v>0.008052697784975827</v>
       </c>
       <c r="G24">
-        <v>-0.05603974453319416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02737754958462125</v>
+      </c>
+      <c r="H24">
+        <v>0.0436961733968355</v>
+      </c>
+      <c r="I24">
+        <v>-0.01911319986748695</v>
+      </c>
+      <c r="J24">
+        <v>-0.01650230301126962</v>
+      </c>
+      <c r="K24">
+        <v>-0.033720597032799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01274333068305002</v>
+        <v>0.02138873211717294</v>
       </c>
       <c r="C25">
-        <v>0.06410407757789724</v>
+        <v>0.06914248897826654</v>
       </c>
       <c r="D25">
-        <v>0.01197856969460684</v>
+        <v>-0.02695926776696174</v>
       </c>
       <c r="E25">
-        <v>-0.004142465308614602</v>
+        <v>0.009298215444544176</v>
       </c>
       <c r="F25">
-        <v>0.03443252497695796</v>
+        <v>0.004889620527093201</v>
       </c>
       <c r="G25">
-        <v>-0.05446784036220911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02470229851483604</v>
+      </c>
+      <c r="H25">
+        <v>0.03754179819584269</v>
+      </c>
+      <c r="I25">
+        <v>-0.006066261586500161</v>
+      </c>
+      <c r="J25">
+        <v>-0.0274217572482573</v>
+      </c>
+      <c r="K25">
+        <v>-0.0253174154854061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.00828512439657845</v>
+        <v>0.0240762119904231</v>
       </c>
       <c r="C26">
-        <v>0.06030097807384875</v>
+        <v>0.06060721361905821</v>
       </c>
       <c r="D26">
-        <v>0.05354226615920054</v>
+        <v>-0.06400567491091046</v>
       </c>
       <c r="E26">
-        <v>0.0263419013228607</v>
+        <v>0.004998442991255581</v>
       </c>
       <c r="F26">
-        <v>-0.0025884121030087</v>
+        <v>0.01625817689783454</v>
       </c>
       <c r="G26">
-        <v>-0.04284774028544823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.004055271484850463</v>
+      </c>
+      <c r="H26">
+        <v>0.1060622670347235</v>
+      </c>
+      <c r="I26">
+        <v>-0.04906752519225036</v>
+      </c>
+      <c r="J26">
+        <v>0.09855711532848088</v>
+      </c>
+      <c r="K26">
+        <v>-0.09086029828950078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3709752370659538</v>
+        <v>0.3195774305458776</v>
       </c>
       <c r="C28">
-        <v>-0.1309149699841709</v>
+        <v>-0.1120546623053019</v>
       </c>
       <c r="D28">
-        <v>-0.03661692696757857</v>
+        <v>0.03429028812136591</v>
       </c>
       <c r="E28">
-        <v>-0.1074546873835187</v>
+        <v>-0.01484608316429111</v>
       </c>
       <c r="F28">
-        <v>-0.03410466390393451</v>
+        <v>-0.04492585406801488</v>
       </c>
       <c r="G28">
-        <v>0.000492692502266886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1128991879221273</v>
+      </c>
+      <c r="H28">
+        <v>0.07576408432008877</v>
+      </c>
+      <c r="I28">
+        <v>0.2327537591753713</v>
+      </c>
+      <c r="J28">
+        <v>0.009433437051671668</v>
+      </c>
+      <c r="K28">
+        <v>-0.0163769439204732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01423214336694066</v>
+        <v>0.01365054960818371</v>
       </c>
       <c r="C29">
-        <v>0.07056788315104627</v>
+        <v>0.08014882230848852</v>
       </c>
       <c r="D29">
-        <v>0.03917215369314868</v>
+        <v>-0.0543293168673891</v>
       </c>
       <c r="E29">
-        <v>0.05536583028803096</v>
+        <v>-0.0519561235722879</v>
       </c>
       <c r="F29">
-        <v>0.01542830409721785</v>
+        <v>-0.004612817021197788</v>
       </c>
       <c r="G29">
-        <v>-0.1003147298372176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1376136818009305</v>
+      </c>
+      <c r="H29">
+        <v>0.2833225541448502</v>
+      </c>
+      <c r="I29">
+        <v>-0.03297948942414338</v>
+      </c>
+      <c r="J29">
+        <v>-0.1679496638025599</v>
+      </c>
+      <c r="K29">
+        <v>0.2021888394320516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.04161383299343399</v>
+        <v>0.03059157244007705</v>
       </c>
       <c r="C30">
-        <v>0.1731870740210071</v>
+        <v>0.1444314388833112</v>
       </c>
       <c r="D30">
-        <v>0.04931223908358948</v>
+        <v>-0.05642560278251951</v>
       </c>
       <c r="E30">
-        <v>0.06696435876047166</v>
+        <v>0.007409909480365485</v>
       </c>
       <c r="F30">
-        <v>0.03986830457541323</v>
+        <v>-0.06810072094199299</v>
       </c>
       <c r="G30">
-        <v>0.01069394429213512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01243789602591689</v>
+      </c>
+      <c r="H30">
+        <v>0.02649389041252432</v>
+      </c>
+      <c r="I30">
+        <v>-0.04898251956065375</v>
+      </c>
+      <c r="J30">
+        <v>0.08615341601935728</v>
+      </c>
+      <c r="K30">
+        <v>-0.02739490582157044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.00172608112641865</v>
+        <v>0.01323495051029398</v>
       </c>
       <c r="C31">
-        <v>0.07386541489082644</v>
+        <v>0.08528004071342261</v>
       </c>
       <c r="D31">
-        <v>0.03955394360750005</v>
+        <v>-0.04237217755952861</v>
       </c>
       <c r="E31">
-        <v>-0.01819805553209134</v>
+        <v>-0.002122352908341007</v>
       </c>
       <c r="F31">
-        <v>-0.01105679641747778</v>
+        <v>0.007266887448752591</v>
       </c>
       <c r="G31">
-        <v>-0.0217712709664667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03067971130121951</v>
+      </c>
+      <c r="H31">
+        <v>0.03038671543296454</v>
+      </c>
+      <c r="I31">
+        <v>-0.01442630566918178</v>
+      </c>
+      <c r="J31">
+        <v>-0.03368116567624283</v>
+      </c>
+      <c r="K31">
+        <v>-0.0207404892042777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03046083528539468</v>
+        <v>0.02449359567991624</v>
       </c>
       <c r="C32">
-        <v>0.08554648448445613</v>
+        <v>0.05780523000256843</v>
       </c>
       <c r="D32">
-        <v>-0.008046271789500075</v>
+        <v>-0.01979435021542372</v>
       </c>
       <c r="E32">
-        <v>0.1720560757460196</v>
+        <v>-0.07433738685138973</v>
       </c>
       <c r="F32">
-        <v>-0.01461285615601241</v>
+        <v>-0.09750495635182424</v>
       </c>
       <c r="G32">
-        <v>-0.06666069031600182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.08690587353728318</v>
+      </c>
+      <c r="H32">
+        <v>0.1671090501333169</v>
+      </c>
+      <c r="I32">
+        <v>0.2232417106153664</v>
+      </c>
+      <c r="J32">
+        <v>0.009955836566991366</v>
+      </c>
+      <c r="K32">
+        <v>0.2085935057075452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01637737836855001</v>
+        <v>0.01643142368444773</v>
       </c>
       <c r="C33">
-        <v>0.09029971053418427</v>
+        <v>0.1068723169707705</v>
       </c>
       <c r="D33">
-        <v>0.050705936098853</v>
+        <v>-0.04635630701551806</v>
       </c>
       <c r="E33">
-        <v>0.02321704332001674</v>
+        <v>0.006973250602383408</v>
       </c>
       <c r="F33">
-        <v>0.006984514548238433</v>
+        <v>-0.01460811228746004</v>
       </c>
       <c r="G33">
-        <v>-0.03593566273647344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02883084014891696</v>
+      </c>
+      <c r="H33">
+        <v>0.05828807753374061</v>
+      </c>
+      <c r="I33">
+        <v>0.0154022266300317</v>
+      </c>
+      <c r="J33">
+        <v>-0.007126493759800358</v>
+      </c>
+      <c r="K33">
+        <v>-0.01992554841951854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.006058270941231435</v>
+        <v>0.01674954399185459</v>
       </c>
       <c r="C34">
-        <v>0.04914934582110255</v>
+        <v>0.05063179308663347</v>
       </c>
       <c r="D34">
-        <v>0.01948760566490097</v>
+        <v>-0.02035507171573619</v>
       </c>
       <c r="E34">
-        <v>0.01049079060522498</v>
+        <v>-0.0006382042371282247</v>
       </c>
       <c r="F34">
-        <v>0.008599326310555919</v>
+        <v>0.007821905986311375</v>
       </c>
       <c r="G34">
-        <v>-0.04218869761596127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01837196527001361</v>
+      </c>
+      <c r="H34">
+        <v>0.01227707159293604</v>
+      </c>
+      <c r="I34">
+        <v>-0.009864803012464349</v>
+      </c>
+      <c r="J34">
+        <v>-0.01389003814008044</v>
+      </c>
+      <c r="K34">
+        <v>-0.03239284682912207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003255583313589277</v>
+        <v>0.00874276677001695</v>
       </c>
       <c r="C35">
-        <v>0.01650725948848896</v>
+        <v>0.04084374989098525</v>
       </c>
       <c r="D35">
-        <v>0.004347355711654748</v>
+        <v>-0.0211009302823021</v>
       </c>
       <c r="E35">
-        <v>0.01505730304103913</v>
+        <v>-0.01285982169677571</v>
       </c>
       <c r="F35">
-        <v>0.008443713633826526</v>
+        <v>-0.004542172441206112</v>
       </c>
       <c r="G35">
-        <v>-0.02738411725996049</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05531173412987657</v>
+      </c>
+      <c r="H35">
+        <v>0.1424754433311047</v>
+      </c>
+      <c r="I35">
+        <v>0.001201146298093985</v>
+      </c>
+      <c r="J35">
+        <v>-0.1393759524395222</v>
+      </c>
+      <c r="K35">
+        <v>0.09080073798420607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008728500975751001</v>
+        <v>0.01562657852561599</v>
       </c>
       <c r="C36">
-        <v>0.05385377837644027</v>
+        <v>0.04779256478251524</v>
       </c>
       <c r="D36">
-        <v>0.04843946540166769</v>
+        <v>-0.04771765844587171</v>
       </c>
       <c r="E36">
-        <v>0.01595394710922363</v>
+        <v>-0.001161058602065311</v>
       </c>
       <c r="F36">
-        <v>-0.001423176775310837</v>
+        <v>-0.002691900230540376</v>
       </c>
       <c r="G36">
-        <v>-0.02061525253225284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.004023528607338788</v>
+      </c>
+      <c r="H36">
+        <v>0.07449906964548787</v>
+      </c>
+      <c r="I36">
+        <v>-0.01781983975892487</v>
+      </c>
+      <c r="J36">
+        <v>0.03387304555772686</v>
+      </c>
+      <c r="K36">
+        <v>-0.05791313613330565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02728913409360456</v>
+        <v>0.01204756711326791</v>
       </c>
       <c r="C38">
-        <v>0.05163914423682192</v>
+        <v>0.06161462116033558</v>
       </c>
       <c r="D38">
-        <v>0.03191538382088543</v>
+        <v>-0.03947556373847519</v>
       </c>
       <c r="E38">
-        <v>0.007298930264397947</v>
+        <v>0.03031599408556764</v>
       </c>
       <c r="F38">
-        <v>0.01562584743592348</v>
+        <v>-0.01280383341546272</v>
       </c>
       <c r="G38">
-        <v>-0.009278114598576546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.001208128536670295</v>
+      </c>
+      <c r="H38">
+        <v>0.08824940360720054</v>
+      </c>
+      <c r="I38">
+        <v>0.05826341466667712</v>
+      </c>
+      <c r="J38">
+        <v>-0.03973563457917847</v>
+      </c>
+      <c r="K38">
+        <v>-0.04368082712017283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.009748281910884334</v>
+        <v>0.01748146563383634</v>
       </c>
       <c r="C39">
-        <v>0.1319455563704833</v>
+        <v>0.1267212089539297</v>
       </c>
       <c r="D39">
-        <v>0.03416499054886199</v>
+        <v>-0.05312414989653733</v>
       </c>
       <c r="E39">
-        <v>0.03181564290244894</v>
+        <v>-0.002405177403440822</v>
       </c>
       <c r="F39">
-        <v>0.04054053166645146</v>
+        <v>-0.003568272539942544</v>
       </c>
       <c r="G39">
-        <v>-0.07215176182993699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04358561836385101</v>
+      </c>
+      <c r="H39">
+        <v>0.0476925697357382</v>
+      </c>
+      <c r="I39">
+        <v>-0.07134246312917468</v>
+      </c>
+      <c r="J39">
+        <v>0.01276035784310532</v>
+      </c>
+      <c r="K39">
+        <v>-0.03697481456712793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01638451673020902</v>
+        <v>0.01522818729381403</v>
       </c>
       <c r="C40">
-        <v>0.03109243154643032</v>
+        <v>0.06164964516557033</v>
       </c>
       <c r="D40">
-        <v>0.03233549952236858</v>
+        <v>-0.03907035355540572</v>
       </c>
       <c r="E40">
-        <v>0.146093749979164</v>
+        <v>-0.02689592071495348</v>
       </c>
       <c r="F40">
-        <v>0.04259992889928913</v>
+        <v>-0.04271622574600292</v>
       </c>
       <c r="G40">
-        <v>-0.06714478122963677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1516628053566072</v>
+      </c>
+      <c r="H40">
+        <v>0.03337555977757504</v>
+      </c>
+      <c r="I40">
+        <v>0.01230520615577272</v>
+      </c>
+      <c r="J40">
+        <v>-0.2508774050233623</v>
+      </c>
+      <c r="K40">
+        <v>-0.0834219427675067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.009045607161009137</v>
+        <v>0.0207775808373924</v>
       </c>
       <c r="C41">
-        <v>0.01820899125483802</v>
+        <v>0.04704739482804577</v>
       </c>
       <c r="D41">
-        <v>0.003891759969058481</v>
+        <v>-0.01744155251615473</v>
       </c>
       <c r="E41">
-        <v>-0.02228652430809476</v>
+        <v>0.007289186178153824</v>
       </c>
       <c r="F41">
-        <v>-0.01509821761553596</v>
+        <v>0.0240308502625357</v>
       </c>
       <c r="G41">
-        <v>0.02914935778779764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007573646536183174</v>
+      </c>
+      <c r="H41">
+        <v>0.03071760325747229</v>
+      </c>
+      <c r="I41">
+        <v>0.03487133566717583</v>
+      </c>
+      <c r="J41">
+        <v>-0.05300983599755826</v>
+      </c>
+      <c r="K41">
+        <v>0.001501198007643274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003836853668953488</v>
+        <v>0.01719867509503667</v>
       </c>
       <c r="C43">
-        <v>0.01744835969251053</v>
+        <v>0.04311263881554423</v>
       </c>
       <c r="D43">
-        <v>0.009803901626155565</v>
+        <v>-0.02975725988832338</v>
       </c>
       <c r="E43">
-        <v>0.0008931330815869542</v>
+        <v>0.01595749771874571</v>
       </c>
       <c r="F43">
-        <v>0.01652672542156385</v>
+        <v>0.006407518441064354</v>
       </c>
       <c r="G43">
-        <v>0.005790979461693034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00143771619602034</v>
+      </c>
+      <c r="H43">
+        <v>0.04770707993387645</v>
+      </c>
+      <c r="I43">
+        <v>0.005761878558213829</v>
+      </c>
+      <c r="J43">
+        <v>-0.04340209672074238</v>
+      </c>
+      <c r="K43">
+        <v>0.006160949738066268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02644106525718784</v>
+        <v>0.01122042376338524</v>
       </c>
       <c r="C44">
-        <v>0.08472098541972045</v>
+        <v>0.09046606438237642</v>
       </c>
       <c r="D44">
-        <v>0.00810933394968579</v>
+        <v>-0.0527496257676412</v>
       </c>
       <c r="E44">
-        <v>0.07628517392131343</v>
+        <v>0.01634525483699835</v>
       </c>
       <c r="F44">
-        <v>0.05500250451334076</v>
+        <v>-0.06829721571708687</v>
       </c>
       <c r="G44">
-        <v>-0.01668815032946346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04915714896684185</v>
+      </c>
+      <c r="H44">
+        <v>0.04903237103493866</v>
+      </c>
+      <c r="I44">
+        <v>-0.05068616191157933</v>
+      </c>
+      <c r="J44">
+        <v>0.05518238132260068</v>
+      </c>
+      <c r="K44">
+        <v>0.006161960889660398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.003019602477462631</v>
+        <v>0.002842651288874864</v>
       </c>
       <c r="C46">
-        <v>0.06740294756986744</v>
+        <v>0.06303830094475722</v>
       </c>
       <c r="D46">
-        <v>0.03844961451338048</v>
+        <v>-0.02979973735489407</v>
       </c>
       <c r="E46">
-        <v>0.04212642775719641</v>
+        <v>-0.007932833802343246</v>
       </c>
       <c r="F46">
-        <v>0.02066337996888077</v>
+        <v>0.00998752299646599</v>
       </c>
       <c r="G46">
-        <v>-0.05914683014495414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04564889874517201</v>
+      </c>
+      <c r="H46">
+        <v>0.1036045940608606</v>
+      </c>
+      <c r="I46">
+        <v>-0.003138296296585967</v>
+      </c>
+      <c r="J46">
+        <v>-0.07863336138578021</v>
+      </c>
+      <c r="K46">
+        <v>0.04193463809589613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.01015697511219129</v>
+        <v>0.02200723960054347</v>
       </c>
       <c r="C47">
-        <v>0.09022842351624126</v>
+        <v>0.08421396068155154</v>
       </c>
       <c r="D47">
-        <v>0.03754659379107772</v>
+        <v>-0.04399575446198647</v>
       </c>
       <c r="E47">
-        <v>-0.02920890326819868</v>
+        <v>-0.008212449970275688</v>
       </c>
       <c r="F47">
-        <v>-0.02741513121837775</v>
+        <v>0.02491073223145177</v>
       </c>
       <c r="G47">
-        <v>-0.06073465685280934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008414480509372406</v>
+      </c>
+      <c r="H47">
+        <v>0.06377853371445166</v>
+      </c>
+      <c r="I47">
+        <v>0.02281412110753273</v>
+      </c>
+      <c r="J47">
+        <v>-0.03454562408483278</v>
+      </c>
+      <c r="K47">
+        <v>-0.01536649130516323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01482540532803971</v>
+        <v>0.02190295028717192</v>
       </c>
       <c r="C48">
-        <v>0.05281104946067498</v>
+        <v>0.05269083295714148</v>
       </c>
       <c r="D48">
-        <v>0.05932789268559788</v>
+        <v>-0.05608397328075102</v>
       </c>
       <c r="E48">
-        <v>0.01539275967110578</v>
+        <v>0.006778082223180507</v>
       </c>
       <c r="F48">
-        <v>0.007069104500923957</v>
+        <v>0.001291675935976742</v>
       </c>
       <c r="G48">
-        <v>-0.0240240665199521</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008635668587535108</v>
+      </c>
+      <c r="H48">
+        <v>0.1017511688339956</v>
+      </c>
+      <c r="I48">
+        <v>-0.03743590422129077</v>
+      </c>
+      <c r="J48">
+        <v>0.0818535317928087</v>
+      </c>
+      <c r="K48">
+        <v>-0.07109545002669687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006112935194397983</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02493120970682083</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008466628991443125</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01206003667795302</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03279693118842131</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.02584986521392328</v>
+      </c>
+      <c r="H49">
+        <v>-0.02472773503491509</v>
+      </c>
+      <c r="I49">
+        <v>-0.04146346385579075</v>
+      </c>
+      <c r="J49">
+        <v>0.01717645418768481</v>
+      </c>
+      <c r="K49">
+        <v>-0.04761082182419479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.003313429697550823</v>
+        <v>0.0132803576178006</v>
       </c>
       <c r="C50">
-        <v>0.07968896671359334</v>
+        <v>0.08161736802325908</v>
       </c>
       <c r="D50">
-        <v>0.02711381115544487</v>
+        <v>-0.02897642172833411</v>
       </c>
       <c r="E50">
-        <v>0.004939586785001305</v>
+        <v>0.002237243231464448</v>
       </c>
       <c r="F50">
-        <v>0.007211100425578527</v>
+        <v>-0.001359025188465128</v>
       </c>
       <c r="G50">
-        <v>-0.01080634632337612</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01031882333610435</v>
+      </c>
+      <c r="H50">
+        <v>0.05739565640919479</v>
+      </c>
+      <c r="I50">
+        <v>0.03596393857850651</v>
+      </c>
+      <c r="J50">
+        <v>-0.02215689243471673</v>
+      </c>
+      <c r="K50">
+        <v>0.0002381591109236411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.007463220499167072</v>
+        <v>-0.005590730014220312</v>
       </c>
       <c r="C51">
-        <v>0.07470237968668957</v>
+        <v>0.03837617520219042</v>
       </c>
       <c r="D51">
-        <v>-0.0006872808445953974</v>
+        <v>-0.02221531370760373</v>
       </c>
       <c r="E51">
-        <v>0.09161087121527967</v>
+        <v>-0.009740210767404691</v>
       </c>
       <c r="F51">
-        <v>0.04029031870689681</v>
+        <v>-0.03454711543838868</v>
       </c>
       <c r="G51">
-        <v>-0.01351756269031186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0385556730503784</v>
+      </c>
+      <c r="H51">
+        <v>0.09326997122560948</v>
+      </c>
+      <c r="I51">
+        <v>-0.02451889076603969</v>
+      </c>
+      <c r="J51">
+        <v>0.1144339268319271</v>
+      </c>
+      <c r="K51">
+        <v>-0.01656332723876606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04911814261044215</v>
+        <v>0.05743948641168772</v>
       </c>
       <c r="C53">
-        <v>0.1354956769653487</v>
+        <v>0.1331023502227424</v>
       </c>
       <c r="D53">
-        <v>0.06284205835883899</v>
+        <v>-0.05573529807823666</v>
       </c>
       <c r="E53">
-        <v>-0.1335704767361978</v>
+        <v>-0.00280029251255191</v>
       </c>
       <c r="F53">
-        <v>-0.01586702244054716</v>
+        <v>0.07086820383957844</v>
       </c>
       <c r="G53">
-        <v>0.02075129735910058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08463326567925887</v>
+      </c>
+      <c r="H53">
+        <v>-0.01913357075552484</v>
+      </c>
+      <c r="I53">
+        <v>0.04881996216985916</v>
+      </c>
+      <c r="J53">
+        <v>-0.01580724152612307</v>
+      </c>
+      <c r="K53">
+        <v>-0.0561686668894955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01586742601123679</v>
+        <v>0.01850148068449561</v>
       </c>
       <c r="C54">
-        <v>0.06644746498852788</v>
+        <v>0.0749764882708802</v>
       </c>
       <c r="D54">
-        <v>0.006364580922110857</v>
+        <v>-0.0110189709049545</v>
       </c>
       <c r="E54">
-        <v>-0.006206301043088474</v>
+        <v>-0.002056874648424487</v>
       </c>
       <c r="F54">
-        <v>0.02323069485041281</v>
+        <v>0.0165197638359407</v>
       </c>
       <c r="G54">
-        <v>-0.03431786398932441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02671107706383256</v>
+      </c>
+      <c r="H54">
+        <v>0.05723581989258312</v>
+      </c>
+      <c r="I54">
+        <v>-0.02338536473802063</v>
+      </c>
+      <c r="J54">
+        <v>-0.01306558621748952</v>
+      </c>
+      <c r="K54">
+        <v>0.004005945326273633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0316942805867265</v>
+        <v>0.03282469559792497</v>
       </c>
       <c r="C55">
-        <v>0.09612664987095369</v>
+        <v>0.08950041507691975</v>
       </c>
       <c r="D55">
-        <v>0.06175593989264795</v>
+        <v>-0.05371881322343599</v>
       </c>
       <c r="E55">
-        <v>-0.07043647474902047</v>
+        <v>0.003859453549188687</v>
       </c>
       <c r="F55">
-        <v>-0.02647978824977867</v>
+        <v>0.05656505544490748</v>
       </c>
       <c r="G55">
-        <v>-0.01219334206100697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04593275926184239</v>
+      </c>
+      <c r="H55">
+        <v>-0.01415074084108031</v>
+      </c>
+      <c r="I55">
+        <v>-0.00726951105437007</v>
+      </c>
+      <c r="J55">
+        <v>-0.006595379246954284</v>
+      </c>
+      <c r="K55">
+        <v>-0.03662011096464204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03999720373874832</v>
+        <v>0.04520121041210655</v>
       </c>
       <c r="C56">
-        <v>0.1682232498139664</v>
+        <v>0.1545666970017665</v>
       </c>
       <c r="D56">
-        <v>0.05450855209735377</v>
+        <v>-0.07674485126465205</v>
       </c>
       <c r="E56">
-        <v>-0.1470710876259673</v>
+        <v>-0.02329389557576644</v>
       </c>
       <c r="F56">
-        <v>-0.06845741582880539</v>
+        <v>0.0967656225491145</v>
       </c>
       <c r="G56">
-        <v>0.04912670625698261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1580866579843628</v>
+      </c>
+      <c r="H56">
+        <v>-0.02920531068334863</v>
+      </c>
+      <c r="I56">
+        <v>0.03464596320691316</v>
+      </c>
+      <c r="J56">
+        <v>0.01894858882643069</v>
+      </c>
+      <c r="K56">
+        <v>-0.04598277035123136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03513803572592283</v>
+        <v>0.0198124458953467</v>
       </c>
       <c r="C58">
-        <v>0.2669047102397334</v>
+        <v>0.1777270230454184</v>
       </c>
       <c r="D58">
-        <v>-0.08282017090906241</v>
+        <v>-0.03592239042106485</v>
       </c>
       <c r="E58">
-        <v>0.2821446420242539</v>
+        <v>0.009608682636202166</v>
       </c>
       <c r="F58">
-        <v>0.1640027926841197</v>
+        <v>-0.3311517823113928</v>
       </c>
       <c r="G58">
-        <v>0.2742930955025484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.05370789374402057</v>
+      </c>
+      <c r="H58">
+        <v>0.02874109112391649</v>
+      </c>
+      <c r="I58">
+        <v>-0.01150336353385599</v>
+      </c>
+      <c r="J58">
+        <v>0.4444521815666723</v>
+      </c>
+      <c r="K58">
+        <v>0.1985158787802316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2796769029170961</v>
+        <v>0.2873834179824076</v>
       </c>
       <c r="C59">
-        <v>-0.02386602143840549</v>
+        <v>-0.04627859626160508</v>
       </c>
       <c r="D59">
-        <v>-0.04986959538918622</v>
+        <v>0.009758807733211644</v>
       </c>
       <c r="E59">
-        <v>0.03773198124629983</v>
+        <v>-0.0269936262059363</v>
       </c>
       <c r="F59">
-        <v>-0.04576047992298744</v>
+        <v>-0.04025943331960943</v>
       </c>
       <c r="G59">
-        <v>-0.02807459185553745</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002998157368958194</v>
+      </c>
+      <c r="H59">
+        <v>-0.02465625095681862</v>
+      </c>
+      <c r="I59">
+        <v>0.03316643296996475</v>
+      </c>
+      <c r="J59">
+        <v>-0.02377686339645027</v>
+      </c>
+      <c r="K59">
+        <v>-0.02021379355229482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.131343710255967</v>
+        <v>0.1511367330288585</v>
       </c>
       <c r="C60">
-        <v>0.1503441766001291</v>
+        <v>0.1579958900095615</v>
       </c>
       <c r="D60">
-        <v>0.06385207370304592</v>
+        <v>-0.04328371804291001</v>
       </c>
       <c r="E60">
-        <v>-0.0714050867554558</v>
+        <v>-0.02869543147091143</v>
       </c>
       <c r="F60">
-        <v>0.03073390973025264</v>
+        <v>0.1275877159614128</v>
       </c>
       <c r="G60">
-        <v>-0.2909003988711403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2375968674846323</v>
+      </c>
+      <c r="H60">
+        <v>-0.2468660841608396</v>
+      </c>
+      <c r="I60">
+        <v>-0.01973141377136424</v>
+      </c>
+      <c r="J60">
+        <v>0.01052832662339616</v>
+      </c>
+      <c r="K60">
+        <v>0.05985573964747005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.007918495372281552</v>
+        <v>0.01995369666203238</v>
       </c>
       <c r="C61">
-        <v>0.09425775580759597</v>
+        <v>0.1001229900561052</v>
       </c>
       <c r="D61">
-        <v>0.0499270603244316</v>
+        <v>-0.05228707851064524</v>
       </c>
       <c r="E61">
-        <v>-0.01365139352459717</v>
+        <v>-0.00539050441063845</v>
       </c>
       <c r="F61">
-        <v>0.01506328049459951</v>
+        <v>0.03177278895184197</v>
       </c>
       <c r="G61">
-        <v>-0.07708536307603188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02565036736269561</v>
+      </c>
+      <c r="H61">
+        <v>0.06054901947538403</v>
+      </c>
+      <c r="I61">
+        <v>-0.03140485346536</v>
+      </c>
+      <c r="J61">
+        <v>-0.02215546838245594</v>
+      </c>
+      <c r="K61">
+        <v>-0.04003770915028895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002344580790840755</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.008978373214182727</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001631057120625736</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.007111711400014168</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01355485399155683</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02295992162470402</v>
+      </c>
+      <c r="H62">
+        <v>0.003553199140383364</v>
+      </c>
+      <c r="I62">
+        <v>-0.001428018509684373</v>
+      </c>
+      <c r="J62">
+        <v>-0.008408185259094718</v>
+      </c>
+      <c r="K62">
+        <v>-0.01702274143114245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.001634484814927105</v>
+        <v>0.02570509283275935</v>
       </c>
       <c r="C63">
-        <v>0.07226498950560942</v>
+        <v>0.07140784181792345</v>
       </c>
       <c r="D63">
-        <v>0.03525540274075156</v>
+        <v>-0.05958836533637175</v>
       </c>
       <c r="E63">
-        <v>-0.008642852429894998</v>
+        <v>-0.004098775190439386</v>
       </c>
       <c r="F63">
-        <v>0.02438280942706248</v>
+        <v>0.0171675821078433</v>
       </c>
       <c r="G63">
-        <v>-0.0354714438851555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.009939918085957155</v>
+      </c>
+      <c r="H63">
+        <v>0.06695674286408798</v>
+      </c>
+      <c r="I63">
+        <v>-0.01166441591625066</v>
+      </c>
+      <c r="J63">
+        <v>-0.01841674355517408</v>
+      </c>
+      <c r="K63">
+        <v>-0.06346685693130397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.006429582136627946</v>
+        <v>0.01472299977125291</v>
       </c>
       <c r="C64">
-        <v>0.09043990578877076</v>
+        <v>0.09128888463723926</v>
       </c>
       <c r="D64">
-        <v>0.07122825419748442</v>
+        <v>-0.03543290332091065</v>
       </c>
       <c r="E64">
-        <v>0.02948868241551086</v>
+        <v>0.03286334257947997</v>
       </c>
       <c r="F64">
-        <v>0.02626708470138306</v>
+        <v>-0.0330374633730247</v>
       </c>
       <c r="G64">
-        <v>-0.0505317450495032</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06810463039698297</v>
+      </c>
+      <c r="H64">
+        <v>0.0374842368214021</v>
+      </c>
+      <c r="I64">
+        <v>-0.03329399352992714</v>
+      </c>
+      <c r="J64">
+        <v>-0.024972304678454</v>
+      </c>
+      <c r="K64">
+        <v>-0.1165844655664906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01972338186765761</v>
+        <v>0.03117803901342066</v>
       </c>
       <c r="C65">
-        <v>0.08322778065832433</v>
+        <v>0.09485851366978988</v>
       </c>
       <c r="D65">
-        <v>0.03413930245328797</v>
+        <v>-0.0196127228612844</v>
       </c>
       <c r="E65">
-        <v>0.03323180583241313</v>
+        <v>0.02851533369448361</v>
       </c>
       <c r="F65">
-        <v>0.02174104026046849</v>
+        <v>-0.003300915032937266</v>
       </c>
       <c r="G65">
-        <v>-0.01468135560832125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09365659870823149</v>
+      </c>
+      <c r="H65">
+        <v>-0.009267323878527503</v>
+      </c>
+      <c r="I65">
+        <v>-0.0714047948361764</v>
+      </c>
+      <c r="J65">
+        <v>0.07961073547630071</v>
+      </c>
+      <c r="K65">
+        <v>0.0103580321005155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.01086045069065782</v>
+        <v>0.01259902251290942</v>
       </c>
       <c r="C66">
-        <v>0.1660396139400711</v>
+        <v>0.1622727527690965</v>
       </c>
       <c r="D66">
-        <v>0.0162576822221764</v>
+        <v>-0.04516142377912161</v>
       </c>
       <c r="E66">
-        <v>0.07065947253688917</v>
+        <v>-0.01368312891171442</v>
       </c>
       <c r="F66">
-        <v>0.02787283983042244</v>
+        <v>-0.01384657931371493</v>
       </c>
       <c r="G66">
-        <v>-0.08725331854782582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0299972960578581</v>
+      </c>
+      <c r="H66">
+        <v>0.06217879898672016</v>
+      </c>
+      <c r="I66">
+        <v>-0.05217885155967743</v>
+      </c>
+      <c r="J66">
+        <v>0.01165846101805201</v>
+      </c>
+      <c r="K66">
+        <v>-0.04107604424734625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02681980190746669</v>
+        <v>0.02105963563259127</v>
       </c>
       <c r="C67">
-        <v>0.03205997831608685</v>
+        <v>0.05176015663137862</v>
       </c>
       <c r="D67">
-        <v>0.05345667405669249</v>
+        <v>-0.04143840786073828</v>
       </c>
       <c r="E67">
-        <v>-0.03218984438998776</v>
+        <v>0.02907897285600157</v>
       </c>
       <c r="F67">
-        <v>0.0130179401051077</v>
+        <v>0.02391043492189936</v>
       </c>
       <c r="G67">
-        <v>-0.02752886840530656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02320295369009742</v>
+      </c>
+      <c r="H67">
+        <v>0.06043655429981146</v>
+      </c>
+      <c r="I67">
+        <v>0.05195436622197178</v>
+      </c>
+      <c r="J67">
+        <v>-0.05457866070743925</v>
+      </c>
+      <c r="K67">
+        <v>-0.0191260870674987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2821215248372561</v>
+        <v>0.2942410776107156</v>
       </c>
       <c r="C68">
-        <v>-0.05313566625595176</v>
+        <v>-0.06603985594136173</v>
       </c>
       <c r="D68">
-        <v>-0.03513799212675753</v>
+        <v>0.0261511027964111</v>
       </c>
       <c r="E68">
-        <v>0.02053289483319415</v>
+        <v>-0.0100490591897496</v>
       </c>
       <c r="F68">
-        <v>-0.007498740652991837</v>
+        <v>-0.02617788532380667</v>
       </c>
       <c r="G68">
-        <v>0.02039898195861416</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02429010047556639</v>
+      </c>
+      <c r="H68">
+        <v>0.02793947308720714</v>
+      </c>
+      <c r="I68">
+        <v>0.03342992486374452</v>
+      </c>
+      <c r="J68">
+        <v>0.009087883298326755</v>
+      </c>
+      <c r="K68">
+        <v>-0.0631208944493941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01304289847004371</v>
+        <v>0.008476006644918004</v>
       </c>
       <c r="C69">
-        <v>0.07124177330671579</v>
+        <v>0.05954539653940496</v>
       </c>
       <c r="D69">
-        <v>0.05231337231414451</v>
+        <v>-0.02732441197777628</v>
       </c>
       <c r="E69">
-        <v>-0.01403421426252434</v>
+        <v>-0.002833438655765497</v>
       </c>
       <c r="F69">
-        <v>0.000890529314966686</v>
+        <v>0.01165397913674104</v>
       </c>
       <c r="G69">
-        <v>-0.02402129224139155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02606366125571797</v>
+      </c>
+      <c r="H69">
+        <v>0.04512690737142043</v>
+      </c>
+      <c r="I69">
+        <v>0.01034877290458514</v>
+      </c>
+      <c r="J69">
+        <v>-0.001842497626723678</v>
+      </c>
+      <c r="K69">
+        <v>-0.01718576743381702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2820096764767005</v>
+        <v>0.2777598157884776</v>
       </c>
       <c r="C71">
-        <v>-0.06746460134696473</v>
+        <v>-0.07622292687538312</v>
       </c>
       <c r="D71">
-        <v>-0.0398675807172021</v>
+        <v>0.02484230808591894</v>
       </c>
       <c r="E71">
-        <v>0.03297194717652351</v>
+        <v>0.01501800292525909</v>
       </c>
       <c r="F71">
-        <v>0.02885874888195869</v>
+        <v>-0.06330067301423756</v>
       </c>
       <c r="G71">
-        <v>0.005020837031544502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01331571170463486</v>
+      </c>
+      <c r="H71">
+        <v>0.05495747449784028</v>
+      </c>
+      <c r="I71">
+        <v>0.1269750556319003</v>
+      </c>
+      <c r="J71">
+        <v>0.03935202708432721</v>
+      </c>
+      <c r="K71">
+        <v>-0.05813171403117837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.04211022069356601</v>
+        <v>0.05584771489927379</v>
       </c>
       <c r="C72">
-        <v>0.1578953862495537</v>
+        <v>0.1397359583840951</v>
       </c>
       <c r="D72">
-        <v>0.06201427890078105</v>
+        <v>-0.0426062119022474</v>
       </c>
       <c r="E72">
-        <v>0.04081192831506477</v>
+        <v>0.004273423262133745</v>
       </c>
       <c r="F72">
-        <v>0.09377155780869793</v>
+        <v>0.02819017760453104</v>
       </c>
       <c r="G72">
-        <v>-0.08710271100245151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02902141833885273</v>
+      </c>
+      <c r="H72">
+        <v>0.02289107105961661</v>
+      </c>
+      <c r="I72">
+        <v>-0.1272670636383968</v>
+      </c>
+      <c r="J72">
+        <v>0.05472305512594786</v>
+      </c>
+      <c r="K72">
+        <v>-0.01475825427404333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08164887081074711</v>
+        <v>0.14823899658124</v>
       </c>
       <c r="C73">
-        <v>0.136898984359001</v>
+        <v>0.1963529714605074</v>
       </c>
       <c r="D73">
-        <v>0.1088061615617363</v>
+        <v>-0.07814884846314794</v>
       </c>
       <c r="E73">
-        <v>-0.1372939598384028</v>
+        <v>0.002203750804768404</v>
       </c>
       <c r="F73">
-        <v>0.06945037380718648</v>
+        <v>0.2556968487264142</v>
       </c>
       <c r="G73">
-        <v>-0.3939968563439832</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3631694624566489</v>
+      </c>
+      <c r="H73">
+        <v>-0.3246845906299222</v>
+      </c>
+      <c r="I73">
+        <v>0.07509115876293679</v>
+      </c>
+      <c r="J73">
+        <v>0.07304748515831254</v>
+      </c>
+      <c r="K73">
+        <v>0.07476984668023323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01818857129804153</v>
+        <v>0.03772948909420476</v>
       </c>
       <c r="C74">
-        <v>0.1029298117099514</v>
+        <v>0.1056120486152894</v>
       </c>
       <c r="D74">
-        <v>0.06542177733292422</v>
+        <v>-0.04596578304345896</v>
       </c>
       <c r="E74">
-        <v>-0.08784647593929164</v>
+        <v>0.002972027201974113</v>
       </c>
       <c r="F74">
-        <v>-0.0427415923100004</v>
+        <v>0.05456665946195751</v>
       </c>
       <c r="G74">
-        <v>0.01322840939560846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05690763873653466</v>
+      </c>
+      <c r="H74">
+        <v>-0.003682181768144469</v>
+      </c>
+      <c r="I74">
+        <v>-0.004715122672168076</v>
+      </c>
+      <c r="J74">
+        <v>0.02209848578604093</v>
+      </c>
+      <c r="K74">
+        <v>-0.06840843989669343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.06037702651208112</v>
+        <v>0.06122477154915838</v>
       </c>
       <c r="C75">
-        <v>0.1532069736290276</v>
+        <v>0.1686002184754513</v>
       </c>
       <c r="D75">
-        <v>0.08596197898554739</v>
+        <v>-0.08397453081256299</v>
       </c>
       <c r="E75">
-        <v>-0.2169129638304176</v>
+        <v>0.05531103553276899</v>
       </c>
       <c r="F75">
-        <v>-0.06533755108216199</v>
+        <v>0.118588948694942</v>
       </c>
       <c r="G75">
-        <v>0.1407728631223097</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2330378967163677</v>
+      </c>
+      <c r="H75">
+        <v>-0.02162034646785099</v>
+      </c>
+      <c r="I75">
+        <v>0.1357454070786935</v>
+      </c>
+      <c r="J75">
+        <v>-0.0620710268126002</v>
+      </c>
+      <c r="K75">
+        <v>-0.0860228163271891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03370795870047705</v>
+        <v>0.04194862221820385</v>
       </c>
       <c r="C76">
-        <v>0.1174941511552721</v>
+        <v>0.1259840962391497</v>
       </c>
       <c r="D76">
-        <v>0.06250846533479196</v>
+        <v>-0.07313948983155599</v>
       </c>
       <c r="E76">
-        <v>-0.1096949638373281</v>
+        <v>0.006753599503794857</v>
       </c>
       <c r="F76">
-        <v>-0.05488420243375795</v>
+        <v>0.0866708839416612</v>
       </c>
       <c r="G76">
-        <v>0.002140442585159841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08710406962982682</v>
+      </c>
+      <c r="H76">
+        <v>-0.007289140114151871</v>
+      </c>
+      <c r="I76">
+        <v>0.008035793511015818</v>
+      </c>
+      <c r="J76">
+        <v>-0.03319757771425945</v>
+      </c>
+      <c r="K76">
+        <v>-0.131319905559404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.06619835667504442</v>
+        <v>0.04480217507724729</v>
       </c>
       <c r="C77">
-        <v>0.2919311058246456</v>
+        <v>0.3869583292955993</v>
       </c>
       <c r="D77">
-        <v>-0.8553852976096283</v>
+        <v>0.9052483646800645</v>
       </c>
       <c r="E77">
-        <v>-0.3121234049793999</v>
+        <v>0.05189219797414007</v>
       </c>
       <c r="F77">
-        <v>0.08515254688572736</v>
+        <v>0.07837435800701838</v>
       </c>
       <c r="G77">
-        <v>-0.05659459464261533</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02935764986015197</v>
+      </c>
+      <c r="H77">
+        <v>0.06198309402177855</v>
+      </c>
+      <c r="I77">
+        <v>0.003504889273627469</v>
+      </c>
+      <c r="J77">
+        <v>-0.001958375969536373</v>
+      </c>
+      <c r="K77">
+        <v>-0.01533049052084218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.04032143688637198</v>
+        <v>0.03375656364899578</v>
       </c>
       <c r="C78">
-        <v>0.1498995363794151</v>
+        <v>0.1135675494445031</v>
       </c>
       <c r="D78">
-        <v>0.09348763167844172</v>
+        <v>-0.09656109750017969</v>
       </c>
       <c r="E78">
-        <v>0.06514967128978039</v>
+        <v>-0.04721085121511499</v>
       </c>
       <c r="F78">
-        <v>-0.1131056377179816</v>
+        <v>-0.007709856267941435</v>
       </c>
       <c r="G78">
-        <v>0.01663098242113884</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1080685039769137</v>
+      </c>
+      <c r="H78">
+        <v>0.05941952634239794</v>
+      </c>
+      <c r="I78">
+        <v>-0.07800615348246462</v>
+      </c>
+      <c r="J78">
+        <v>0.4033669893505382</v>
+      </c>
+      <c r="K78">
+        <v>-0.007320982940032038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.04032119399162164</v>
+        <v>0.05488828314242683</v>
       </c>
       <c r="C79">
-        <v>0.1865663023261429</v>
+        <v>0.1437501178990243</v>
       </c>
       <c r="D79">
-        <v>0.1130400739031921</v>
+        <v>-0.0662057737730925</v>
       </c>
       <c r="E79">
-        <v>-0.1591422161788891</v>
+        <v>-0.01363154565323137</v>
       </c>
       <c r="F79">
-        <v>-0.1416106069935473</v>
+        <v>0.07376489089102301</v>
       </c>
       <c r="G79">
-        <v>0.1268132338716365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2357837029024147</v>
+      </c>
+      <c r="H79">
+        <v>0.002646510080499917</v>
+      </c>
+      <c r="I79">
+        <v>0.07229631473140108</v>
+      </c>
+      <c r="J79">
+        <v>0.08121056985254808</v>
+      </c>
+      <c r="K79">
+        <v>-0.06343193175822717</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01560799478984935</v>
+        <v>0.02021060290774573</v>
       </c>
       <c r="C80">
-        <v>0.04213567724881969</v>
+        <v>0.0517318657859978</v>
       </c>
       <c r="D80">
-        <v>0.0468886490479776</v>
+        <v>-0.03945912243602336</v>
       </c>
       <c r="E80">
-        <v>-0.01000334558032293</v>
+        <v>-0.05002086419931093</v>
       </c>
       <c r="F80">
-        <v>-0.0275636136228333</v>
+        <v>-0.01896440169972423</v>
       </c>
       <c r="G80">
-        <v>-0.002762969975321001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05270733836142135</v>
+      </c>
+      <c r="H80">
+        <v>-0.0360044409108656</v>
+      </c>
+      <c r="I80">
+        <v>0.04820741776878015</v>
+      </c>
+      <c r="J80">
+        <v>-0.07764171904575673</v>
+      </c>
+      <c r="K80">
+        <v>-0.0266648749150114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.01412224946407933</v>
+        <v>0.01581440294186947</v>
       </c>
       <c r="C81">
-        <v>0.09104636430217129</v>
+        <v>0.100908987543816</v>
       </c>
       <c r="D81">
-        <v>0.07861689095514919</v>
+        <v>-0.05405690319577704</v>
       </c>
       <c r="E81">
-        <v>-0.1197973140323147</v>
+        <v>-0.007749889291718512</v>
       </c>
       <c r="F81">
-        <v>-0.06620353333919249</v>
+        <v>0.04866406395706341</v>
       </c>
       <c r="G81">
-        <v>0.02903615633458694</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1102328028874124</v>
+      </c>
+      <c r="H81">
+        <v>0.04701145383160792</v>
+      </c>
+      <c r="I81">
+        <v>0.0568318713864713</v>
+      </c>
+      <c r="J81">
+        <v>-0.0245130306913601</v>
+      </c>
+      <c r="K81">
+        <v>-0.08817193067490936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0384658540941877</v>
+        <v>0.04688964797508311</v>
       </c>
       <c r="C82">
-        <v>0.09765203530631224</v>
+        <v>0.1068551733452341</v>
       </c>
       <c r="D82">
-        <v>0.07589791066957902</v>
+        <v>-0.06623690990158095</v>
       </c>
       <c r="E82">
-        <v>-0.117689063777701</v>
+        <v>0.0002177808263395176</v>
       </c>
       <c r="F82">
-        <v>-0.0339836190711114</v>
+        <v>0.07254044626566099</v>
       </c>
       <c r="G82">
-        <v>0.004538171379305413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09539804463628121</v>
+      </c>
+      <c r="H82">
+        <v>0.01599024635816153</v>
+      </c>
+      <c r="I82">
+        <v>0.02383635913447939</v>
+      </c>
+      <c r="J82">
+        <v>-0.01361648348653871</v>
+      </c>
+      <c r="K82">
+        <v>-0.1045674622973242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004872458109637628</v>
+        <v>-0.0007924800442807467</v>
       </c>
       <c r="C83">
-        <v>0.04654584716542352</v>
+        <v>-0.0009090250920675994</v>
       </c>
       <c r="D83">
-        <v>-0.1900503874836876</v>
+        <v>0.06541222302856027</v>
       </c>
       <c r="E83">
-        <v>0.2699475837580795</v>
+        <v>-0.962070669398339</v>
       </c>
       <c r="F83">
-        <v>-0.8613187701363102</v>
+        <v>-0.008864944889063444</v>
       </c>
       <c r="G83">
-        <v>-0.1871353298002636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05153816188529214</v>
+      </c>
+      <c r="H83">
+        <v>-0.08245585111113948</v>
+      </c>
+      <c r="I83">
+        <v>-0.05894438321552627</v>
+      </c>
+      <c r="J83">
+        <v>0.003559945809200941</v>
+      </c>
+      <c r="K83">
+        <v>-0.09186365480728002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0009319334507962286</v>
+        <v>-0.0009720323053804294</v>
       </c>
       <c r="C84">
-        <v>0.05246111440990839</v>
+        <v>0.04555905384417801</v>
       </c>
       <c r="D84">
-        <v>0.02721713523374041</v>
+        <v>-0.06241987326676681</v>
       </c>
       <c r="E84">
-        <v>0.1041387038945909</v>
+        <v>0.01575980202645307</v>
       </c>
       <c r="F84">
-        <v>0.07529066353487684</v>
+        <v>-0.1007975386701924</v>
       </c>
       <c r="G84">
-        <v>0.1022283467451364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03656854159767281</v>
+      </c>
+      <c r="H84">
+        <v>0.07343422609975502</v>
+      </c>
+      <c r="I84">
+        <v>-0.1047634646076999</v>
+      </c>
+      <c r="J84">
+        <v>-0.05839943252920775</v>
+      </c>
+      <c r="K84">
+        <v>-0.07972849905251897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.03156808321229734</v>
+        <v>0.03045620163863449</v>
       </c>
       <c r="C85">
-        <v>0.1355782898945549</v>
+        <v>0.1165346752035714</v>
       </c>
       <c r="D85">
-        <v>0.08790335112868312</v>
+        <v>-0.07969878403912309</v>
       </c>
       <c r="E85">
-        <v>-0.1507401813873922</v>
+        <v>0.003853592977112341</v>
       </c>
       <c r="F85">
-        <v>-0.0926807852265811</v>
+        <v>0.1245243618431199</v>
       </c>
       <c r="G85">
-        <v>0.08479928615134132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1995820153429291</v>
+      </c>
+      <c r="H85">
+        <v>-0.01828246787134176</v>
+      </c>
+      <c r="I85">
+        <v>0.08484825606913439</v>
+      </c>
+      <c r="J85">
+        <v>-0.0296108792559909</v>
+      </c>
+      <c r="K85">
+        <v>-0.191761829925032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02039493050066853</v>
+        <v>0.01611209819418641</v>
       </c>
       <c r="C86">
-        <v>0.06851217615892109</v>
+        <v>0.08223721330101187</v>
       </c>
       <c r="D86">
-        <v>-0.03242629488080439</v>
+        <v>-0.0253652137294752</v>
       </c>
       <c r="E86">
-        <v>0.04290456105627124</v>
+        <v>-0.006388985875618878</v>
       </c>
       <c r="F86">
-        <v>0.06511486816477947</v>
+        <v>-0.09085210687711393</v>
       </c>
       <c r="G86">
-        <v>-0.01637172246297817</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04525180520360488</v>
+      </c>
+      <c r="H86">
+        <v>0.01740593035008773</v>
+      </c>
+      <c r="I86">
+        <v>0.1326577423446605</v>
+      </c>
+      <c r="J86">
+        <v>0.1707952295567813</v>
+      </c>
+      <c r="K86">
+        <v>0.07424953670947958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.04509261603090348</v>
+        <v>0.02428795659347483</v>
       </c>
       <c r="C87">
-        <v>0.1492318722120977</v>
+        <v>0.1180465859968204</v>
       </c>
       <c r="D87">
-        <v>0.01375096023115801</v>
+        <v>-0.01776352620251642</v>
       </c>
       <c r="E87">
-        <v>0.1266574818808317</v>
+        <v>0.0003756823136690751</v>
       </c>
       <c r="F87">
-        <v>0.001806512731636743</v>
+        <v>-0.07700727189807824</v>
       </c>
       <c r="G87">
-        <v>0.03740726516233003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.001151645129189433</v>
+      </c>
+      <c r="H87">
+        <v>0.04388489332975934</v>
+      </c>
+      <c r="I87">
+        <v>-0.09739558343701751</v>
+      </c>
+      <c r="J87">
+        <v>0.05884922658244625</v>
+      </c>
+      <c r="K87">
+        <v>-0.07981262925832112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.005935736797464028</v>
+        <v>0.03622315688448621</v>
       </c>
       <c r="C88">
-        <v>0.04249229897762054</v>
+        <v>0.06607866459311521</v>
       </c>
       <c r="D88">
-        <v>0.04836912221380433</v>
+        <v>-0.04317625869753194</v>
       </c>
       <c r="E88">
-        <v>-0.05555869200258051</v>
+        <v>0.01461858253132145</v>
       </c>
       <c r="F88">
-        <v>0.02084328058088175</v>
+        <v>0.02153864620836028</v>
       </c>
       <c r="G88">
-        <v>-0.008299457155147835</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02170114673280136</v>
+      </c>
+      <c r="H88">
+        <v>0.001811029361236363</v>
+      </c>
+      <c r="I88">
+        <v>0.02280325701568815</v>
+      </c>
+      <c r="J88">
+        <v>-0.07602134191026812</v>
+      </c>
+      <c r="K88">
+        <v>-0.06280685994936533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3863589574606024</v>
+        <v>0.391052956009641</v>
       </c>
       <c r="C89">
-        <v>-0.09157934709660363</v>
+        <v>-0.1055180457602126</v>
       </c>
       <c r="D89">
-        <v>0.1057791879460738</v>
+        <v>0.03072155076926885</v>
       </c>
       <c r="E89">
-        <v>0.07029535180991618</v>
+        <v>0.02861954153952157</v>
       </c>
       <c r="F89">
-        <v>-0.04948818834451029</v>
+        <v>-0.05029852351106134</v>
       </c>
       <c r="G89">
-        <v>0.09247144815255456</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01570530840094187</v>
+      </c>
+      <c r="H89">
+        <v>-0.01227062466826041</v>
+      </c>
+      <c r="I89">
+        <v>-0.756889244122634</v>
+      </c>
+      <c r="J89">
+        <v>-0.05062379885750559</v>
+      </c>
+      <c r="K89">
+        <v>0.05242831778362489</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3030167384053916</v>
+        <v>0.3142627805413815</v>
       </c>
       <c r="C90">
-        <v>-0.03178761540964438</v>
+        <v>-0.06692204970361113</v>
       </c>
       <c r="D90">
-        <v>-0.008082472310355986</v>
+        <v>0.01303017134832704</v>
       </c>
       <c r="E90">
-        <v>0.05362711141152546</v>
+        <v>-0.02175033326862417</v>
       </c>
       <c r="F90">
-        <v>-0.05743900871370365</v>
+        <v>-0.03173021779941883</v>
       </c>
       <c r="G90">
-        <v>-0.02756425685167127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0177048551391457</v>
+      </c>
+      <c r="H90">
+        <v>0.01510120866928796</v>
+      </c>
+      <c r="I90">
+        <v>0.07315562420791734</v>
+      </c>
+      <c r="J90">
+        <v>0.02649265798992867</v>
+      </c>
+      <c r="K90">
+        <v>-0.005294818888883652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.03424969921279239</v>
+        <v>0.05221386623888702</v>
       </c>
       <c r="C91">
-        <v>0.09445881901502749</v>
+        <v>0.09110074926173947</v>
       </c>
       <c r="D91">
-        <v>0.04548178497587855</v>
+        <v>-0.04441598595172036</v>
       </c>
       <c r="E91">
-        <v>-0.08537170365105468</v>
+        <v>-0.02805966191226045</v>
       </c>
       <c r="F91">
-        <v>-0.06642018316596487</v>
+        <v>0.06034721690131731</v>
       </c>
       <c r="G91">
-        <v>0.03596903615412204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08318788774130147</v>
+      </c>
+      <c r="H91">
+        <v>-0.02139472493635737</v>
+      </c>
+      <c r="I91">
+        <v>0.004869475805173211</v>
+      </c>
+      <c r="J91">
+        <v>-0.04258198613593771</v>
+      </c>
+      <c r="K91">
+        <v>-0.0273249167564816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3726039246712149</v>
+        <v>0.3547257404842503</v>
       </c>
       <c r="C92">
-        <v>-0.116483638414655</v>
+        <v>-0.124094551342566</v>
       </c>
       <c r="D92">
-        <v>-0.02938150753633068</v>
+        <v>0.05412293899600901</v>
       </c>
       <c r="E92">
-        <v>0.02588771696932665</v>
+        <v>0.04322109149607366</v>
       </c>
       <c r="F92">
-        <v>0.1086092792254555</v>
+        <v>-0.06678803117700034</v>
       </c>
       <c r="G92">
-        <v>0.0367245985848957</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.005365838652457347</v>
+      </c>
+      <c r="H92">
+        <v>0.0788149119317343</v>
+      </c>
+      <c r="I92">
+        <v>0.1514546487751602</v>
+      </c>
+      <c r="J92">
+        <v>0.01428023643961172</v>
+      </c>
+      <c r="K92">
+        <v>0.04777549332375099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.2998440201690296</v>
+        <v>0.3103350323299328</v>
       </c>
       <c r="C93">
-        <v>-0.09301384485179739</v>
+        <v>-0.1134739610163615</v>
       </c>
       <c r="D93">
-        <v>0.01767397797795276</v>
+        <v>0.007308227359790329</v>
       </c>
       <c r="E93">
-        <v>0.05730119091746806</v>
+        <v>-0.003144174118634667</v>
       </c>
       <c r="F93">
-        <v>-0.005312365190537703</v>
+        <v>-0.04232739936469319</v>
       </c>
       <c r="G93">
-        <v>0.03403878958227635</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03637974846558933</v>
+      </c>
+      <c r="H93">
+        <v>0.03799581424258244</v>
+      </c>
+      <c r="I93">
+        <v>0.1040335068050063</v>
+      </c>
+      <c r="J93">
+        <v>0.01142432519548435</v>
+      </c>
+      <c r="K93">
+        <v>-0.03563526773920291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.0654560843104227</v>
+        <v>0.07823718971137997</v>
       </c>
       <c r="C94">
-        <v>0.2123221635284104</v>
+        <v>0.1715628671871355</v>
       </c>
       <c r="D94">
-        <v>0.1543376526145233</v>
+        <v>-0.1040165914842009</v>
       </c>
       <c r="E94">
-        <v>-0.3182055576827214</v>
+        <v>0.001172971800330306</v>
       </c>
       <c r="F94">
-        <v>-0.2139343078488459</v>
+        <v>0.1637088809741986</v>
       </c>
       <c r="G94">
-        <v>0.4970781508055547</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5520952032906833</v>
+      </c>
+      <c r="H94">
+        <v>-0.1645097110368556</v>
+      </c>
+      <c r="I94">
+        <v>-0.1129714240442743</v>
+      </c>
+      <c r="J94">
+        <v>-0.2309630224796714</v>
+      </c>
+      <c r="K94">
+        <v>0.4881783189530076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.04263271143289769</v>
+        <v>0.03756018512091327</v>
       </c>
       <c r="C95">
-        <v>0.09478221941894677</v>
+        <v>0.1281445174603814</v>
       </c>
       <c r="D95">
-        <v>0.03165373511402189</v>
+        <v>-0.05939502747552303</v>
       </c>
       <c r="E95">
-        <v>-0.04937413568942077</v>
+        <v>0.03830573953058948</v>
       </c>
       <c r="F95">
-        <v>-0.02077787787747572</v>
+        <v>0.07439818907602189</v>
       </c>
       <c r="G95">
-        <v>-0.1429674895165461</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04901846427807178</v>
+      </c>
+      <c r="H95">
+        <v>0.07212923651816307</v>
+      </c>
+      <c r="I95">
+        <v>-0.1113625906731267</v>
+      </c>
+      <c r="J95">
+        <v>-0.2495320832162776</v>
+      </c>
+      <c r="K95">
+        <v>-0.3281780743996883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0002969968853105126</v>
+        <v>0.01092905047824145</v>
       </c>
       <c r="C97">
-        <v>0.0001139866170088672</v>
+        <v>0.01391964222114097</v>
       </c>
       <c r="D97">
-        <v>-0.0001569790077052994</v>
+        <v>0.01044589553118253</v>
       </c>
       <c r="E97">
-        <v>-0.0004227691379717759</v>
+        <v>0.0334234647830494</v>
       </c>
       <c r="F97">
-        <v>0.000680112292076697</v>
+        <v>-0.01046582434807245</v>
       </c>
       <c r="G97">
-        <v>0.0004884086242712767</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03202422499558495</v>
+      </c>
+      <c r="H97">
+        <v>0.03281832895813205</v>
+      </c>
+      <c r="I97">
+        <v>-0.02502668673678529</v>
+      </c>
+      <c r="J97">
+        <v>-0.01207729264268865</v>
+      </c>
+      <c r="K97">
+        <v>0.06551576872922439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09773250628641406</v>
+        <v>0.1303286103945355</v>
       </c>
       <c r="C98">
-        <v>0.1427629558233499</v>
+        <v>0.1606263560054385</v>
       </c>
       <c r="D98">
-        <v>0.09688842155489051</v>
+        <v>-0.08602546874242449</v>
       </c>
       <c r="E98">
-        <v>-0.07540926177822321</v>
+        <v>-0.002915406675177696</v>
       </c>
       <c r="F98">
-        <v>0.0514809049759359</v>
+        <v>0.2192972467410686</v>
       </c>
       <c r="G98">
-        <v>-0.2645115243183637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3111446359724409</v>
+      </c>
+      <c r="H98">
+        <v>-0.349977758181103</v>
+      </c>
+      <c r="I98">
+        <v>0.09009591611030829</v>
+      </c>
+      <c r="J98">
+        <v>0.1004023950937099</v>
+      </c>
+      <c r="K98">
+        <v>0.1869515433690435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01131599357154734</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02451695154661502</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009047649049078786</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.0008092018462125698</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.03952415232458314</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.03681978962488429</v>
+      </c>
+      <c r="H99">
+        <v>0.1059725632202442</v>
+      </c>
+      <c r="I99">
+        <v>0.0036732010438807</v>
+      </c>
+      <c r="J99">
+        <v>-0.01065297256432365</v>
+      </c>
+      <c r="K99">
+        <v>0.4143414712423119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01460424403845256</v>
+        <v>0.01382064281375595</v>
       </c>
       <c r="C101">
-        <v>0.06915461517579341</v>
+        <v>0.07905905680770002</v>
       </c>
       <c r="D101">
-        <v>0.03762698649087225</v>
+        <v>-0.05252286022300412</v>
       </c>
       <c r="E101">
-        <v>0.05465949557885202</v>
+        <v>-0.05198838477245244</v>
       </c>
       <c r="F101">
-        <v>0.01631057313914849</v>
+        <v>-0.004880289366963655</v>
       </c>
       <c r="G101">
-        <v>-0.09985756694417916</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1379040720120555</v>
+      </c>
+      <c r="H101">
+        <v>0.2821805975926469</v>
+      </c>
+      <c r="I101">
+        <v>-0.03221362061174482</v>
+      </c>
+      <c r="J101">
+        <v>-0.167187270290078</v>
+      </c>
+      <c r="K101">
+        <v>0.2047124309138241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01334309144516813</v>
+        <v>0.004801342990022426</v>
       </c>
       <c r="C102">
-        <v>0.03924814090533191</v>
+        <v>0.01608037802879098</v>
       </c>
       <c r="D102">
-        <v>0.01445083100816701</v>
+        <v>-0.00402703951053877</v>
       </c>
       <c r="E102">
-        <v>-0.02715499864756287</v>
+        <v>-0.006616910811699626</v>
       </c>
       <c r="F102">
-        <v>-0.02605031096227296</v>
+        <v>0.008659846288520423</v>
       </c>
       <c r="G102">
-        <v>-0.00389454702420228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01040626489255114</v>
+      </c>
+      <c r="H102">
+        <v>0.003226838446908403</v>
+      </c>
+      <c r="I102">
+        <v>-0.02170139971611304</v>
+      </c>
+      <c r="J102">
+        <v>0.002573803210103242</v>
+      </c>
+      <c r="K102">
+        <v>0.02523842932013596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
